--- a/KittingToolResources/SourceChecklists/TAP223-000G30-190RC Cableset (KittingTool).xlsx
+++ b/KittingToolResources/SourceChecklists/TAP223-000G30-190RC Cableset (KittingTool).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingToolCLOSEDSOURCE\KittingTool\KittingToolResources\SourceChecklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingSystemRepository\KittingToolResources\SourceChecklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8495CD49-8C58-45DF-BAEF-8AB6D1CD3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4574FD0A-33D1-469C-B747-E554C59820DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EB52122-A495-4AFC-96DD-D07721917C86}"/>
   </bookViews>
@@ -118,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,20 +187,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -214,7 +205,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE49C26-DDBB-4000-A9A8-6A3E439477CC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +557,7 @@
       <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
